--- a/resources/assets/document-templates/en-US/new.xlsx
+++ b/resources/assets/document-templates/en-US/new.xlsx
@@ -338,5 +338,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>